--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,15 @@
         <v>20221224</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20221225</v>
+      </c>
+      <c r="B3" t="n">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,22 @@
         <v>186</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20221226</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="B5" t="n">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,7 +474,7 @@
         <v>20221227</v>
       </c>
       <c r="B5" t="n">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -474,7 +474,7 @@
         <v>20221227</v>
       </c>
       <c r="B5" t="n">
-        <v>136</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,7 +474,7 @@
         <v>20221227</v>
       </c>
       <c r="B5" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,14 @@
         <v>184</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -482,7 +482,7 @@
         <v>20221228</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -482,7 +482,7 @@
         <v>20221228</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,7 +482,7 @@
         <v>20221228</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,14 @@
         <v>102</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="B7" t="n">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,7 +490,7 @@
         <v>20221229</v>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,14 @@
         <v>40</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="B8" t="n">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,15 @@
         <v>20221230</v>
       </c>
       <c r="B8" t="n">
-        <v>61</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="B9" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -506,7 +506,7 @@
         <v>20221231</v>
       </c>
       <c r="B9" t="n">
-        <v>35</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,14 @@
         <v>178</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +514,17 @@
         <v>20230101</v>
       </c>
       <c r="B10" t="n">
-        <v>90</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20230102</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,13 +518,19 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>20230102</t>
-        </is>
+      <c r="A11" t="n">
+        <v>20230102</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="B12" t="n">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
         <v>20230103</v>
       </c>
       <c r="B12" t="n">
-        <v>130</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -530,7 +530,7 @@
         <v>20230103</v>
       </c>
       <c r="B12" t="n">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,7 +530,15 @@
         <v>20230103</v>
       </c>
       <c r="B12" t="n">
-        <v>326</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="B13" t="n">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,14 @@
         <v>91</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="B14" t="n">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,16 @@
         <v>70</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20230106</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,16 @@
         <v>70</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20230106</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,12 +550,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
-          <t>20230106</t>
+          <t>20230108</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,12 +566,20 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
-          <t>20230108</t>
+          <t>20230110</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>0</v>
       </c>
     </row>

--- a/학습시간.xlsx
+++ b/학습시간.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,12 +574,20 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
-          <t>20230110</t>
+          <t>20230111</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B19" t="n">
         <v>0</v>
       </c>
     </row>
